--- a/resources/chunks/10020002.xlsx
+++ b/resources/chunks/10020002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3870" windowWidth="13380" windowHeight="7290" tabRatio="417"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13935" windowHeight="7395" tabRatio="417"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="5">
   <si>
     <t>ground</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>door</t>
+  </si>
+  <si>
+    <t>treeEl</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -91,13 +108,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -106,6 +116,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -131,13 +155,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -146,6 +163,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -171,13 +202,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -186,6 +210,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -211,13 +249,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -226,6 +257,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -251,13 +296,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -272,56 +310,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -347,13 +343,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -362,6 +351,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -387,13 +390,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -402,6 +398,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -427,13 +437,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -442,6 +445,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -467,13 +484,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -488,56 +498,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -563,13 +531,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -578,6 +539,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -596,6 +571,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -603,35 +592,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -647,8 +615,82 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF128017"/>
+      <color rgb="FF21C94D"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -939,9 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1"/>
   <cols>
@@ -959,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1006,22 +1046,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
@@ -1056,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
@@ -1103,25 +1143,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -1153,25 +1193,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
@@ -1203,25 +1243,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
         <v>0</v>
@@ -1456,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" t="s">
         <v>0</v>
@@ -1503,64 +1543,70 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="door">
+    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="road">
+      <formula>NOT(ISERROR(SEARCH("road",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="water">
+      <formula>NOT(ISERROR(SEARCH("water",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="6" operator="containsText" text="ground">
+      <formula>NOT(ISERROR(SEARCH("ground",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="door">
       <formula>NOT(ISERROR(SEARCH("door",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="2" operator="containsText" text="road">
-      <formula>NOT(ISERROR(SEARCH("road",A1)))</formula>
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+      <formula>"treeLi"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="water">
-      <formula>NOT(ISERROR(SEARCH("water",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="4" operator="containsText" text="ground">
-      <formula>NOT(ISERROR(SEARCH("ground",A1)))</formula>
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
+      <formula>"treeEl"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
